--- a/notebooks/SPINK5/input/SPINK5_NS_individuals.xlsx
+++ b/notebooks/SPINK5/input/SPINK5_NS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SPINK5/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE50BA0-01EE-6A43-A4F7-555007A23393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515E625F-E988-634E-A51F-F4B611F13F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="36580" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="3040" windowWidth="57680" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t>PMID</t>
   </si>
@@ -302,6 +302,96 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>PMID:39891497</t>
+  </si>
+  <si>
+    <t>Systemic JAK inhibitors for treatment of cutaneous manifestations in a patient with SPINK5 variants: A case report and review of the literature</t>
+  </si>
+  <si>
+    <t>P17Y</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Atopic dermatitis</t>
+  </si>
+  <si>
+    <t>HP:0001047</t>
+  </si>
+  <si>
+    <t>Nut food product allergy</t>
+  </si>
+  <si>
+    <t>HP:0410331</t>
+  </si>
+  <si>
+    <t>P1M</t>
+  </si>
+  <si>
+    <t>Erythematous plaque</t>
+  </si>
+  <si>
+    <t>HP:0025474</t>
+  </si>
+  <si>
+    <t>Dermatographic urticaria</t>
+  </si>
+  <si>
+    <t>HP:0011971</t>
+  </si>
+  <si>
+    <t>Nasal congestion</t>
+  </si>
+  <si>
+    <t>HP:0001742</t>
+  </si>
+  <si>
+    <t>Abnormal circulating IgG concentration</t>
+  </si>
+  <si>
+    <t>HP:0410242</t>
+  </si>
+  <si>
+    <t>Abnormal circulating IgA concentration</t>
+  </si>
+  <si>
+    <t>HP:0410240</t>
+  </si>
+  <si>
+    <t>Abnormal circulating IgM concentration</t>
+  </si>
+  <si>
+    <t>HP:0410243</t>
+  </si>
+  <si>
+    <t>Elevated total serum tryptase</t>
+  </si>
+  <si>
+    <t>HP:0031901</t>
+  </si>
+  <si>
+    <t>Eosinophilia</t>
+  </si>
+  <si>
+    <t>HP:0001880</t>
+  </si>
+  <si>
+    <t>c.2390G&gt;T</t>
+  </si>
+  <si>
+    <t>c.1499G&gt;A</t>
+  </si>
+  <si>
+    <t>NP_006837.2:p.(Gly797Val);NP_006837.2:p.(Arg500Gln)</t>
+  </si>
+  <si>
+    <t>Trichorrhexis invaginata</t>
+  </si>
+  <si>
+    <t>HP:0025811</t>
   </si>
 </sst>
 </file>
@@ -672,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -680,7 +770,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,82 +829,115 @@
         <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="BB1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -873,82 +996,115 @@
         <v>77</v>
       </c>
       <c r="T2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>123</v>
+      </c>
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AH2" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>67</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS2" t="s">
         <v>68</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>69</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>72</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>73</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>82</v>
       </c>
+      <c r="BB2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1003,17 +1159,103 @@
       <c r="S3" t="s">
         <v>75</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AU3" t="s">
         <v>83</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AZ3" t="s">
         <v>80</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="BA3" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" t="s">
+        <v>83</v>
+      </c>
+      <c r="W4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/SPINK5/input/SPINK5_NS_individuals.xlsx
+++ b/notebooks/SPINK5/input/SPINK5_NS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SPINK5/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515E625F-E988-634E-A51F-F4B611F13F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE50BA0-01EE-6A43-A4F7-555007A23393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="3040" windowWidth="57680" windowHeight="20440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="36580" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>PMID</t>
   </si>
@@ -302,96 +302,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>PMID:39891497</t>
-  </si>
-  <si>
-    <t>Systemic JAK inhibitors for treatment of cutaneous manifestations in a patient with SPINK5 variants: A case report and review of the literature</t>
-  </si>
-  <si>
-    <t>P17Y</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Atopic dermatitis</t>
-  </si>
-  <si>
-    <t>HP:0001047</t>
-  </si>
-  <si>
-    <t>Nut food product allergy</t>
-  </si>
-  <si>
-    <t>HP:0410331</t>
-  </si>
-  <si>
-    <t>P1M</t>
-  </si>
-  <si>
-    <t>Erythematous plaque</t>
-  </si>
-  <si>
-    <t>HP:0025474</t>
-  </si>
-  <si>
-    <t>Dermatographic urticaria</t>
-  </si>
-  <si>
-    <t>HP:0011971</t>
-  </si>
-  <si>
-    <t>Nasal congestion</t>
-  </si>
-  <si>
-    <t>HP:0001742</t>
-  </si>
-  <si>
-    <t>Abnormal circulating IgG concentration</t>
-  </si>
-  <si>
-    <t>HP:0410242</t>
-  </si>
-  <si>
-    <t>Abnormal circulating IgA concentration</t>
-  </si>
-  <si>
-    <t>HP:0410240</t>
-  </si>
-  <si>
-    <t>Abnormal circulating IgM concentration</t>
-  </si>
-  <si>
-    <t>HP:0410243</t>
-  </si>
-  <si>
-    <t>Elevated total serum tryptase</t>
-  </si>
-  <si>
-    <t>HP:0031901</t>
-  </si>
-  <si>
-    <t>Eosinophilia</t>
-  </si>
-  <si>
-    <t>HP:0001880</t>
-  </si>
-  <si>
-    <t>c.2390G&gt;T</t>
-  </si>
-  <si>
-    <t>c.1499G&gt;A</t>
-  </si>
-  <si>
-    <t>NP_006837.2:p.(Gly797Val);NP_006837.2:p.(Arg500Gln)</t>
-  </si>
-  <si>
-    <t>Trichorrhexis invaginata</t>
-  </si>
-  <si>
-    <t>HP:0025811</t>
   </si>
 </sst>
 </file>
@@ -762,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
@@ -770,7 +680,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,115 +739,82 @@
         <v>76</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -996,115 +873,82 @@
         <v>77</v>
       </c>
       <c r="T2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="U2" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="Z2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AF2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AG2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AH2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AI2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AK2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AN2" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AO2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AP2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="AQ2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AR2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA2" t="s">
         <v>82</v>
       </c>
-      <c r="BB2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>86</v>
       </c>
@@ -1159,103 +1003,17 @@
       <c r="S3" t="s">
         <v>75</v>
       </c>
-      <c r="V3" t="s">
+      <c r="T3" t="s">
         <v>83</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AL3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AQ3" t="s">
         <v>80</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="AR3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
-      </c>
-      <c r="N4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" t="s">
-        <v>102</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
-      </c>
-      <c r="W4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
